--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Escola\LEIC 2\2 Semestre\IPM\BakeOff-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Escola\LEIC 2\2 Semestre\IPM\BakeOff-2\IPM_bakeOff2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7218627C-1AEF-4E39-8A5B-DC227309D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC90AD3-C8AF-45A7-83CB-6C4CEAFAB3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{08AA5781-7BED-491F-BA32-7AD7993E2346}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08AA5781-7BED-491F-BA32-7AD7993E2346}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
   <si>
     <t>Pessoa</t>
   </si>
@@ -97,15 +97,9 @@
     <t>Média</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Iteração 1</t>
   </si>
   <si>
-    <t>Average Time Per Target</t>
-  </si>
-  <si>
     <t>Total time</t>
   </si>
   <si>
@@ -122,13 +116,34 @@
   </si>
   <si>
     <t>Penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempt 1 </t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Diferença</t>
+  </si>
+  <si>
+    <t>Iteração 2</t>
+  </si>
+  <si>
+    <t>Melhor Tempo</t>
+  </si>
+  <si>
+    <t>Pior Tempo</t>
+  </si>
+  <si>
+    <t>Média Tempo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +151,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -159,24 +195,235 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -187,7 +434,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -219,36 +466,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -280,6 +500,57 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -301,6 +572,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8696B"/>
+      <color rgb="FF63BE7B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -611,68 +888,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E20E5A-19F2-4CCA-BD49-80CBD640F95C}">
   <dimension ref="D3:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE('Código Base'!K16:L16,'Código Base'!U16)</f>
+        <v>12.875018392811302</v>
       </c>
     </row>
     <row r="5" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <f>MIN('Código Base'!E24:E33,'Código Base'!I24:I33)</f>
+        <v>50.519999999999996</v>
       </c>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <f>MAX('Código Base'!E24:E33,'Código Base'!I24:I33)</f>
+        <v>189.64699999999999</v>
       </c>
       <c r="O6" t="s">
         <v>15</v>
@@ -691,549 +969,1605 @@
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:L3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B1FEF-7331-43EF-B587-613DB96C33BB}">
-  <dimension ref="B3:M21"/>
+  <dimension ref="B3:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F4" s="1" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="O4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="Q5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="R5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="S5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="T5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="U5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
+      <c r="D6" s="14">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14">
+        <f>12-D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f>(D6-E6)/12*100</f>
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <f>E24</f>
         <v>189.64699999999999</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <f>G6/12</f>
+        <v>15.803916666666666</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <f>G6/12+M6</f>
+        <v>14.803916666666666</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="15">
+        <f>0.2*(95-(D6*100)/12)</f>
+        <v>-1</v>
+      </c>
+      <c r="O6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <f>12-G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f>(G6-H6)/12*100</f>
+      <c r="P6" s="14">
+        <f>H24</f>
+        <v>12</v>
+      </c>
+      <c r="Q6" s="14">
+        <f>12-P6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <f>(P6-Q6)/12*100</f>
         <v>100</v>
       </c>
-      <c r="J6">
-        <f>D6</f>
-        <v>189.64699999999999</v>
-      </c>
-      <c r="K6">
-        <f>J6/12</f>
-        <v>15.803916666666666</v>
-      </c>
-      <c r="L6">
-        <f>J6/12+M6</f>
-        <v>14.803916666666666</v>
-      </c>
-      <c r="M6">
-        <f>0.2*(95-(G6*100)/12)</f>
+      <c r="S6" s="14">
+        <f>I24</f>
+        <v>123.67400000000001</v>
+      </c>
+      <c r="T6" s="14">
+        <f>S6/12</f>
+        <v>10.306166666666668</v>
+      </c>
+      <c r="U6" s="14">
+        <f>S6/12+V6</f>
+        <v>9.3061666666666678</v>
+      </c>
+      <c r="V6" s="15">
+        <f>0.2*(95-(P6*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="5">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E15" si="0">12-D7</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F15" si="1">(D7-E7)/12*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G7" s="25">
+        <f>E25</f>
         <v>137.131</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25">
+        <f t="shared" ref="I7:I15" si="2">G7/12</f>
+        <v>11.427583333333333</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25">
+        <f>G7/12+M7</f>
+        <v>17.094249999999999</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="6">
+        <f>0.2*(95-(D7*100)/12)</f>
+        <v>5.6666666666666661</v>
+      </c>
+      <c r="O7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H15" si="0">12-G7</f>
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7:I15" si="1">(G7-H7)/12*100</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7:J15" si="2">D7</f>
-        <v>137.131</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K15" si="3">J7/12</f>
-        <v>11.427583333333333</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L15" si="4">J7/12+M7</f>
-        <v>17.094249999999999</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M15" si="5">0.2*(95-(G7*100)/12)</f>
-        <v>5.6666666666666661</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="P7" s="5">
+        <f>H25</f>
+        <v>12</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" ref="Q7:Q15" si="3">12-P7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" ref="R7:R15" si="4">(P7-Q7)/12*100</f>
+        <v>100</v>
+      </c>
+      <c r="S7" s="5">
+        <f>I25</f>
+        <v>176.964</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" ref="T7:T15" si="5">S7/12</f>
+        <v>14.747</v>
+      </c>
+      <c r="U7" s="5">
+        <f>S7/12+V7</f>
+        <v>13.747</v>
+      </c>
+      <c r="V7" s="6">
+        <f>0.2*(95-(P7*100)/12)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>261.64509999900002</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G7:G15" si="6">C8</f>
-        <v>12</v>
-      </c>
-      <c r="H8">
+      <c r="D8" s="5">
+        <f>D26</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J8">
+      <c r="G8" s="25">
+        <f>E26</f>
+        <v>83.876499989999999</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25">
         <f t="shared" si="2"/>
-        <v>261.64509999900002</v>
-      </c>
-      <c r="K8">
+        <v>6.9897083325000002</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25">
+        <f>G8/12+M8</f>
+        <v>5.9897083325000002</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="6">
+        <f>0.2*(95-(D8*100)/12)</f>
+        <v>-1</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" ref="P8:P15" si="6">H26</f>
+        <v>9</v>
+      </c>
+      <c r="Q8" s="5">
         <f t="shared" si="3"/>
-        <v>21.803758333250002</v>
-      </c>
-      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="R8" s="5">
         <f t="shared" si="4"/>
-        <v>20.803758333250002</v>
-      </c>
-      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" ref="S8:S15" si="7">I26</f>
+        <v>51.5076999999999</v>
+      </c>
+      <c r="T8" s="5">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+        <v>4.2923083333333247</v>
+      </c>
+      <c r="U8" s="5">
+        <f>S8/12+V8</f>
+        <v>8.2923083333333238</v>
+      </c>
+      <c r="V8" s="6">
+        <f>0.2*(95-(P8*100)/12)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="5">
+        <f>D27</f>
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>139.288199999</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="H9">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="J9">
+      <c r="G9" s="25">
+        <f>E27</f>
+        <v>139.288199999</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25">
         <f t="shared" si="2"/>
-        <v>139.288199999</v>
-      </c>
-      <c r="K9">
+        <v>11.607349999916666</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25">
+        <f>G9/12+M9</f>
+        <v>12.274016666583332</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="6">
+        <f>0.2*(95-(D9*100)/12)</f>
+        <v>0.66666666666666574</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="3"/>
-        <v>11.607349999916666</v>
-      </c>
-      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
         <f t="shared" si="4"/>
-        <v>12.274016666583332</v>
-      </c>
-      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="7"/>
+        <v>70.167099999998996</v>
+      </c>
+      <c r="T9" s="5">
         <f t="shared" si="5"/>
-        <v>0.66666666666666574</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+        <v>5.84725833333325</v>
+      </c>
+      <c r="U9" s="5">
+        <f>S9/12+V9</f>
+        <v>4.84725833333325</v>
+      </c>
+      <c r="V9" s="6">
+        <f>0.2*(95-(P9*100)/12)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="D10" s="5">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>-100</v>
       </c>
-      <c r="J10">
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25">
+        <f>G10/12+M10</f>
+        <v>19</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="6">
+        <f>0.2*(95-(D10*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="R10" s="5">
         <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <f>S10/12+V10</f>
         <v>19</v>
       </c>
-      <c r="M10">
+      <c r="V10" s="6">
+        <f>0.2*(95-(P10*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <f>D29</f>
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="25">
+        <f>E29</f>
+        <v>50.519999999999996</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25">
+        <f t="shared" si="2"/>
+        <v>4.21</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25">
+        <f>G11/12+M11</f>
+        <v>3.21</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="6">
+        <f>0.2*(95-(D11*100)/12)</f>
+        <v>-1</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="31"/>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5">
+        <f>D30</f>
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="25">
+        <f>E30</f>
+        <v>53.027999999999992</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25">
+        <f t="shared" si="2"/>
+        <v>4.4189999999999996</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25">
+        <f>G12/12+M12</f>
+        <v>3.4189999999999996</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="6">
+        <f>0.2*(95-(D12*100)/12)</f>
+        <v>-1</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="31"/>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5">
+        <f>D31</f>
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="25">
+        <f>E31</f>
+        <v>138.92400000000001</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25">
+        <f t="shared" si="2"/>
+        <v>11.577</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25">
+        <f>G13/12+M13</f>
+        <v>10.577</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="6">
+        <f>0.2*(95-(D13*100)/12)</f>
+        <v>-1</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="31"/>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <f>D32</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="5">
+        <f>G14/12+M14</f>
+        <v>19</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6">
+        <f>0.2*(95-(D14*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="O14" s="33">
+        <v>9</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <f>S14/12+V14</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
+      <c r="V14" s="6">
+        <f>0.2*(95-(P14*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <f>D33</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23">
+        <f>G15/12+M15</f>
+        <v>19</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="9">
+        <f>0.2*(95-(D15*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="O15" s="35">
+        <v>10</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="8">
+        <f>S15/12+V15</f>
+        <v>19</v>
+      </c>
+      <c r="V15" s="9">
+        <f>0.2*(95-(P15*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:I16" si="8">AVERAGE(D6:D15)</f>
+        <v>7.9</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="8"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="8"/>
+        <v>31.666666666666664</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="8"/>
+        <v>79.241469998900001</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11">
+        <f t="shared" si="8"/>
+        <v>6.6034558332416662</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
+        <f>AVERAGE(K6:K15)</f>
+        <v>12.436789166574998</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9">
+        <f>AVERAGE(M6:M15)</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" ref="P16:T16" si="9">AVERAGE(P6:P15)</f>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="9"/>
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="9"/>
+        <v>60.330399999999841</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="9"/>
+        <v>5.027533333333321</v>
+      </c>
+      <c r="U16" s="8">
+        <f>AVERAGE(U6:U15)</f>
+        <v>13.313247619047607</v>
+      </c>
+      <c r="V16" s="9">
+        <f>AVERAGE(V6:V15)</f>
+        <v>8.2857142857142865</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F20" s="22"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="14">
+        <v>12</v>
+      </c>
+      <c r="E24" s="15">
+        <v>189.64699999999999</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="14">
+        <v>12</v>
+      </c>
+      <c r="I24" s="15">
+        <v>123.67400000000001</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="5">
+        <f>MIN(D6,P6)</f>
+        <v>12</v>
+      </c>
+      <c r="M24" s="14">
+        <f>12-L24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <f>(L24-M24)/12*100</f>
+        <v>100</v>
+      </c>
+      <c r="O24" s="14">
+        <f>MIN(G6,S6)</f>
+        <v>123.67400000000001</v>
+      </c>
+      <c r="P24" s="14">
+        <f>O24/12</f>
+        <v>10.306166666666668</v>
+      </c>
+      <c r="Q24" s="14">
+        <f>O24/12+R24</f>
+        <v>9.3061666666666678</v>
+      </c>
+      <c r="R24" s="15">
+        <f>0.2*(95-(L24*100)/12)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6">
+        <v>137.131</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="5">
+        <v>12</v>
+      </c>
+      <c r="I25" s="6">
+        <v>176.964</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" ref="L25:L33" si="10">MIN(D7,P7)</f>
+        <v>8</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" ref="M25:M33" si="11">12-L25</f>
+        <v>4</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" ref="N25:N33" si="12">(L25-M25)/12*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="O25" s="5">
+        <f>MIN(G7,S7)</f>
+        <v>137.131</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" ref="P25:P33" si="13">O25/12</f>
+        <v>11.427583333333333</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>O25/12+R25</f>
+        <v>17.094249999999999</v>
+      </c>
+      <c r="R25" s="6">
+        <f>0.2*(95-(L25*100)/12)</f>
+        <v>5.6666666666666661</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6">
+        <v>83.876499989999999</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="5">
+        <v>9</v>
+      </c>
+      <c r="I26" s="6">
+        <v>51.5076999999999</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" ref="O26:O33" si="14">MIN(G8,S8)</f>
+        <v>51.5076999999999</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="13"/>
+        <v>4.2923083333333247</v>
+      </c>
+      <c r="Q26" s="5">
+        <f>O26/12+R26</f>
+        <v>8.2923083333333238</v>
+      </c>
+      <c r="R26" s="6">
+        <f>0.2*(95-(L26*100)/12)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5">
+        <v>11</v>
+      </c>
+      <c r="E27" s="6">
+        <v>139.288199999</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5">
+        <v>12</v>
+      </c>
+      <c r="I27" s="6">
+        <v>70.167099999998996</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="12"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="14"/>
+        <v>70.167099999998996</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="13"/>
+        <v>5.84725833333325</v>
+      </c>
+      <c r="Q27" s="5">
+        <f>O27/12+R27</f>
+        <v>6.513924999999916</v>
+      </c>
+      <c r="R27" s="6">
+        <f>0.2*(95-(L27*100)/12)</f>
+        <v>0.66666666666666574</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="12"/>
+        <v>-100</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <f>O28/12+R28</f>
+        <v>19</v>
+      </c>
+      <c r="R28" s="6">
+        <f>0.2*(95-(L28*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6">
         <f>4.21*12</f>
         <v>50.519999999999996</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
+      <c r="G29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="K29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
+      <c r="O29" s="5">
+        <f t="shared" si="14"/>
         <v>50.519999999999996</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
+      <c r="P29" s="5">
+        <f t="shared" si="13"/>
         <v>4.21</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
+      <c r="Q29" s="5">
+        <f>O29/12+R29</f>
         <v>3.21</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
+      <c r="R29" s="6">
+        <f>0.2*(95-(L29*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
+      <c r="D30" s="5">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6">
         <f>4.419*12</f>
         <v>53.027999999999992</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="K30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
+      <c r="O30" s="5">
+        <f t="shared" si="14"/>
         <v>53.027999999999992</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
+      <c r="P30" s="5">
+        <f t="shared" si="13"/>
         <v>4.4189999999999996</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
+      <c r="Q30" s="5">
+        <f>O30/12+R30</f>
         <v>3.4189999999999996</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="5"/>
+      <c r="R30" s="6">
+        <f>0.2*(95-(L30*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
+      <c r="D31" s="5">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6">
         <f>11.577*12</f>
         <v>138.92400000000001</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="K31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
+      <c r="O31" s="5">
+        <f t="shared" si="14"/>
         <v>138.92400000000001</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
+      <c r="P31" s="5">
+        <f t="shared" si="13"/>
         <v>11.577</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="4"/>
+      <c r="Q31" s="5">
+        <f>O31/12+R31</f>
         <v>10.577</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="5"/>
+      <c r="R31" s="6">
+        <f>0.2*(95-(L31*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>9</v>
       </c>
-      <c r="F14">
+      <c r="C32" s="4">
         <v>9</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="G32" s="4">
+        <v>9</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="K32" s="4">
+        <v>9</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="12"/>
         <v>-100</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="4"/>
+      <c r="O32" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <f>O32/12+R32</f>
         <v>19</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="5"/>
+      <c r="R32" s="6">
+        <f>0.2*(95-(L32*100)/12)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B33">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="C33" s="7">
         <v>10</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="G33" s="7">
+        <v>10</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+      <c r="K33" s="7">
+        <v>10</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="12"/>
         <v>-100</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="4"/>
+      <c r="O33" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8">
+        <f>O33/12+R33</f>
         <v>19</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="5"/>
+      <c r="R33" s="9">
+        <f>0.2*(95-(L33*100)/12)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G17">
-        <f>AVERAGE(G6:G15)</f>
-        <v>7.9</v>
-      </c>
-      <c r="H17">
-        <f>AVERAGE(H6:H15)</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I17">
-        <f>AVERAGE(I6:I15)</f>
-        <v>31.666666666666664</v>
-      </c>
-      <c r="J17">
-        <f>AVERAGE(J6:J15)</f>
-        <v>97.018329999799988</v>
-      </c>
-      <c r="K17">
-        <f>AVERAGE(K6:K15)</f>
-        <v>8.0848608333166645</v>
-      </c>
-      <c r="L17">
-        <f>AVERAGE(L6:L15)</f>
-        <v>13.91819416665</v>
-      </c>
-    </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F21" s="3" t="s">
-        <v>19</v>
+      <c r="L34" s="37">
+        <f t="shared" ref="L34:P34" si="15">AVERAGE(L24:L33)</f>
+        <v>7.6</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="15"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N34" s="8">
+        <f t="shared" si="15"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="O34" s="8">
+        <f t="shared" si="15"/>
+        <v>62.495179999999877</v>
+      </c>
+      <c r="P34" s="8">
+        <f t="shared" si="15"/>
+        <v>5.2079316666666573</v>
+      </c>
+      <c r="Q34" s="8">
+        <f>AVERAGE(Q24:Q33)</f>
+        <v>11.54126499999999</v>
+      </c>
+      <c r="R34" s="9">
+        <f>AVERAGE(R24:R33)</f>
+        <v>6.333333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:L4"/>
+  <mergeCells count="41">
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="O4:V4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:C15">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="D24:D33">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:M15">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="D6:D15">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="2.0270000000000001"/>
+        <cfvo type="num" val="2.5830000000000002"/>
+        <cfvo type="num" val="3.694"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="2.0270000000000001"/>
+        <cfvo type="num" val="2.5830000000000002"/>
+        <cfvo type="num" val="3.694"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G15 I6:I15 O6:V15 K15 M15 K14:M14 K6:K13 M6:M13">
+    <cfRule type="expression" dxfId="5" priority="20">
+      <formula>$D6&lt;12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="21">
+      <formula>"$G6&lt;12"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H33">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:L33">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="2.0270000000000001"/>
+        <cfvo type="num" val="2.5830000000000002"/>
+        <cfvo type="num" val="3.694"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:R33">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$D24&lt;12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>"$G6&lt;12"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{8697EB17-8703-4749-BC54-1FA7FA9627D9}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2.0270000000000001</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.1379999999999999</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{D5D776D0-5070-4B5F-9AFB-BEE2C4576792}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2.0270000000000001</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.1379999999999999</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>U16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{C04A1CC3-3856-444E-8A37-5B1DFF7EEBCD}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2.0270000000000001</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.1379999999999999</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Escola\LEIC 2\2 Semestre\IPM\BakeOff-2\IPM_bakeOff2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC90AD3-C8AF-45A7-83CB-6C4CEAFAB3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E928B55-7C5B-4D3D-8709-7D375033D9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08AA5781-7BED-491F-BA32-7AD7993E2346}"/>
   </bookViews>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="35">
   <si>
     <t>Pessoa</t>
   </si>
@@ -138,6 +160,12 @@
   <si>
     <t>Média Tempo</t>
   </si>
+  <si>
+    <t>Diference per target + penality</t>
+  </si>
+  <si>
+    <t>Tudo por ordem alfabética e os mesmos tipos têm a mesma cor (cores básicas do js)</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -340,70 +368,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -419,22 +415,64 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="15">
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -459,20 +497,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -489,20 +513,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -567,6 +577,30 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -889,7 +923,7 @@
   <dimension ref="D3:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E3" sqref="E3:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,69 +936,98 @@
     <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="10.21875" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="F3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
+    </row>
+    <row r="4" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Código Base'!K16:L16,'Código Base'!U16)</f>
         <v>12.875018392811302</v>
       </c>
-    </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
+      <c r="G4">
+        <f>AVERAGE('Iteração 1'!L17:M17,'Iteração 1'!V17)</f>
+        <v>16.618288750000001</v>
+      </c>
+      <c r="H4">
+        <f>F4-G4</f>
+        <v>-3.7432703571886989</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F5">
-        <f>MIN('Código Base'!E24:E33,'Código Base'!I24:I33)</f>
-        <v>50.519999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+        <f>MIN('Código Base'!K6:L15,'Código Base'!U6:U15)</f>
+        <v>3.21</v>
+      </c>
+      <c r="G5">
+        <f>MIN('Iteração 1'!V7:V16,'Iteração 1'!L7:M16)</f>
+        <v>2.7483333333333331</v>
+      </c>
+      <c r="H5">
+        <f>F5-G5</f>
+        <v>0.46166666666666689</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F6">
-        <f>MAX('Código Base'!E24:E33,'Código Base'!I24:I33)</f>
-        <v>189.64699999999999</v>
-      </c>
-      <c r="O6" t="s">
+        <f>MAX('Código Base'!K6:L15,'Código Base'!U6:U15)</f>
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <f>MAX('Iteração 1'!V7:V16,'Iteração 1'!L7:M16)</f>
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:16" x14ac:dyDescent="0.3">
       <c r="O7" t="s">
         <v>6</v>
       </c>
       <c r="P7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
@@ -978,7 +1041,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H4:H6">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -986,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B1FEF-7331-43EF-B587-613DB96C33BB}">
   <dimension ref="B3:V34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,9 +1080,9 @@
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" customWidth="1"/>
     <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="36.33203125" bestFit="1" customWidth="1"/>
@@ -1016,1379 +1090,1418 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-      <c r="O4" s="18" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="28"/>
+      <c r="O4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="20"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="28"/>
+      <c r="K5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="24" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="24" t="s">
+      <c r="O5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="V5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14">
-        <v>12</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="7">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7">
         <f>12-D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="7">
         <f>(D6-E6)/12*100</f>
         <v>100</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="30">
         <f>E24</f>
         <v>189.64699999999999</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="H6" s="30"/>
+      <c r="I6" s="30">
         <f>G6/12</f>
         <v>15.803916666666666</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <f>G6/12+M6</f>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30">
+        <f t="shared" ref="K6:K15" si="0">G6/12+M6</f>
         <v>14.803916666666666</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="15">
-        <f>0.2*(95-(D6*100)/12)</f>
+      <c r="L6" s="30"/>
+      <c r="M6" s="8">
+        <f t="shared" ref="M6:M15" si="1">0.2*(95-(D6*100)/12)</f>
         <v>-1</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="7">
         <f>H24</f>
         <v>12</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="7">
         <f>12-P6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="7">
         <f>(P6-Q6)/12*100</f>
         <v>100</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="7">
         <f>I24</f>
         <v>123.67400000000001</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="7">
         <f>S6/12</f>
         <v>10.306166666666668</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="7">
         <f>S6/12+V6</f>
         <v>9.3061666666666678</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="8">
         <f>0.2*(95-(P6*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
-        <f t="shared" ref="E7:E15" si="0">12-D7</f>
+      <c r="E7">
+        <f t="shared" ref="E7:E15" si="2">12-D7</f>
         <v>4</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" ref="F7:F15" si="1">(D7-E7)/12*100</f>
+      <c r="F7">
+        <f t="shared" ref="F7:F15" si="3">(D7-E7)/12*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="29">
         <f>E25</f>
         <v>137.131</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25">
-        <f t="shared" ref="I7:I15" si="2">G7/12</f>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29">
+        <f t="shared" ref="I7:I15" si="4">G7/12</f>
         <v>11.427583333333333</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25">
-        <f>G7/12+M7</f>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29">
+        <f t="shared" si="0"/>
         <v>17.094249999999999</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="6">
-        <f>0.2*(95-(D7*100)/12)</f>
+      <c r="L7" s="29"/>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
         <v>5.6666666666666661</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7">
         <f>H25</f>
         <v>12</v>
       </c>
-      <c r="Q7" s="5">
-        <f t="shared" ref="Q7:Q15" si="3">12-P7</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <f t="shared" ref="R7:R15" si="4">(P7-Q7)/12*100</f>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q15" si="5">12-P7</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R15" si="6">(P7-Q7)/12*100</f>
         <v>100</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7">
         <f>I25</f>
         <v>176.964</v>
       </c>
-      <c r="T7" s="5">
-        <f t="shared" ref="T7:T15" si="5">S7/12</f>
+      <c r="T7">
+        <f t="shared" ref="T7:T15" si="7">S7/12</f>
         <v>14.747</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7">
         <f>S7/12+V7</f>
         <v>13.747</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="2">
         <f>0.2*(95-(P7*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
-        <f>D26</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
+      <c r="D8">
+        <f t="shared" ref="D8:D15" si="8">D26</f>
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="29">
         <f>E26</f>
         <v>83.876499989999999</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25">
-        <f t="shared" si="2"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29">
+        <f t="shared" si="4"/>
         <v>6.9897083325000002</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25">
-        <f>G8/12+M8</f>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29">
+        <f t="shared" si="0"/>
         <v>5.9897083325000002</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="6">
-        <f>0.2*(95-(D8*100)/12)</f>
+      <c r="L8" s="29"/>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="5">
-        <f t="shared" ref="P8:P15" si="6">H26</f>
+      <c r="P8">
+        <f t="shared" ref="P8:P15" si="9">H26</f>
         <v>9</v>
       </c>
-      <c r="Q8" s="5">
-        <f t="shared" si="3"/>
+      <c r="Q8">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="R8" s="5">
-        <f t="shared" si="4"/>
+      <c r="R8">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="S8" s="5">
-        <f t="shared" ref="S8:S15" si="7">I26</f>
+      <c r="S8">
+        <f t="shared" ref="S8:S15" si="10">I26</f>
         <v>51.5076999999999</v>
       </c>
-      <c r="T8" s="5">
-        <f t="shared" si="5"/>
+      <c r="T8">
+        <f t="shared" si="7"/>
         <v>4.2923083333333247</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8">
         <f>S8/12+V8</f>
         <v>8.2923083333333238</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="2">
         <f>0.2*(95-(P8*100)/12)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
-        <f>D27</f>
+      <c r="D9">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
+      <c r="E9">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
+      <c r="F9">
+        <f t="shared" si="3"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="29">
         <f>E27</f>
         <v>139.288199999</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25">
-        <f t="shared" si="2"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29">
+        <f t="shared" si="4"/>
         <v>11.607349999916666</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25">
-        <f>G9/12+M9</f>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29">
+        <f t="shared" si="0"/>
         <v>12.274016666583332</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="6">
-        <f>0.2*(95-(D9*100)/12)</f>
+      <c r="L9" s="29"/>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
         <v>0.66666666666666574</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9">
+        <f t="shared" si="10"/>
+        <v>70.167099999998996</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="7"/>
-        <v>70.167099999998996</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="5"/>
         <v>5.84725833333325</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9">
         <f>S9/12+V9</f>
         <v>4.84725833333325</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="2">
         <f>0.2*(95-(P9*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5">
-        <f>D28</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F10" s="5">
+        <v>19</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="2">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
         <v>-100</v>
       </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25">
+      <c r="S10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>S10/12+V10</f>
+        <v>19</v>
+      </c>
+      <c r="V10" s="2">
+        <f>0.2*(95-(P10*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25">
-        <f>G10/12+M10</f>
-        <v>19</v>
-      </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="6">
-        <f>0.2*(95-(D10*100)/12)</f>
-        <v>19</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="F11">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="S10" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
-        <f>S10/12+V10</f>
-        <v>19</v>
-      </c>
-      <c r="V10" s="6">
-        <f>0.2*(95-(P10*100)/12)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5">
-        <f>D29</f>
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="29">
         <f>E29</f>
         <v>50.519999999999996</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29">
+        <f t="shared" si="4"/>
+        <v>4.21</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29">
+        <f t="shared" si="0"/>
+        <v>3.21</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
-        <v>4.21</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25">
-        <f>G11/12+M11</f>
-        <v>3.21</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="6">
-        <f>0.2*(95-(D11*100)/12)</f>
-        <v>-1</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="31"/>
-    </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5">
-        <f>D30</f>
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="29">
         <f>E30</f>
         <v>53.027999999999992</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25">
+      <c r="H12" s="29"/>
+      <c r="I12" s="29">
+        <f t="shared" si="4"/>
+        <v>4.4189999999999996</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29">
+        <f t="shared" si="0"/>
+        <v>3.4189999999999996</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
-        <v>4.4189999999999996</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25">
-        <f>G12/12+M12</f>
-        <v>3.4189999999999996</v>
-      </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="6">
-        <f>0.2*(95-(D12*100)/12)</f>
-        <v>-1</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="31"/>
-    </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5">
-        <f>D31</f>
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="29">
         <f>E31</f>
         <v>138.92400000000001</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25">
+      <c r="H13" s="29"/>
+      <c r="I13" s="29">
+        <f t="shared" si="4"/>
+        <v>11.577</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29">
+        <f t="shared" si="0"/>
+        <v>10.577</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="2"/>
-        <v>11.577</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25">
-        <f>G13/12+M13</f>
-        <v>10.577</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="6">
-        <f>0.2*(95-(D13*100)/12)</f>
-        <v>-1</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="31"/>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O14" s="16">
         <v>9</v>
       </c>
-      <c r="D14" s="5">
-        <f>D32</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>S14/12+V14</f>
+        <v>19</v>
+      </c>
+      <c r="V14" s="2">
+        <f>0.2*(95-(P14*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F14" s="5">
+        <v>19</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="5">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O15" s="18">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="6"/>
         <v>-100</v>
       </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="5">
-        <f>G14/12+M14</f>
-        <v>19</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6">
-        <f>0.2*(95-(D14*100)/12)</f>
-        <v>19</v>
-      </c>
-      <c r="O14" s="33">
-        <v>9</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="R14" s="5">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="S14" s="5">
+      <c r="S15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="T14" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <f>S14/12+V14</f>
-        <v>19</v>
-      </c>
-      <c r="V14" s="6">
-        <f>0.2*(95-(P14*100)/12)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C15" s="7">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8">
-        <f>D33</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23">
-        <f>G15/12+M15</f>
-        <v>19</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="9">
-        <f>0.2*(95-(D15*100)/12)</f>
-        <v>19</v>
-      </c>
-      <c r="O15" s="35">
-        <v>10</v>
-      </c>
-      <c r="P15" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="R15" s="8">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="S15" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="8">
+      <c r="U15" s="4">
         <f>S15/12+V15</f>
         <v>19</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="5">
         <f>0.2*(95-(P15*100)/12)</f>
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" ref="D16:I16" si="8">AVERAGE(D6:D15)</f>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:I16" si="11">AVERAGE(D6:D15)</f>
         <v>7.9</v>
       </c>
-      <c r="E16" s="8">
-        <f t="shared" si="8"/>
+      <c r="E16" s="4">
+        <f t="shared" si="11"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F16" s="8">
-        <f t="shared" si="8"/>
+      <c r="F16" s="4">
+        <f t="shared" si="11"/>
         <v>31.666666666666664</v>
       </c>
-      <c r="G16" s="11">
-        <f t="shared" si="8"/>
+      <c r="G16" s="21">
+        <f t="shared" si="11"/>
         <v>79.241469998900001</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11">
-        <f t="shared" si="8"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21">
+        <f t="shared" si="11"/>
         <v>6.6034558332416662</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21">
         <f>AVERAGE(K6:K15)</f>
         <v>12.436789166574998</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="9">
+      <c r="L16" s="21"/>
+      <c r="M16" s="5">
         <f>AVERAGE(M6:M15)</f>
         <v>5.833333333333333</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="8">
-        <f t="shared" ref="P16:T16" si="9">AVERAGE(P6:P15)</f>
+      <c r="P16" s="4">
+        <f t="shared" ref="P16:T16" si="12">AVERAGE(P6:P15)</f>
         <v>6.4285714285714288</v>
       </c>
-      <c r="Q16" s="8">
-        <f t="shared" si="9"/>
+      <c r="Q16" s="4">
+        <f t="shared" si="12"/>
         <v>5.5714285714285712</v>
       </c>
-      <c r="R16" s="8">
-        <f t="shared" si="9"/>
+      <c r="R16" s="4">
+        <f t="shared" si="12"/>
         <v>7.1428571428571432</v>
       </c>
-      <c r="S16" s="8">
-        <f t="shared" si="9"/>
+      <c r="S16" s="4">
+        <f t="shared" si="12"/>
         <v>60.330399999999841</v>
       </c>
-      <c r="T16" s="8">
-        <f t="shared" si="9"/>
+      <c r="T16" s="4">
+        <f t="shared" si="12"/>
         <v>5.027533333333321</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="4">
         <f>AVERAGE(U6:U15)</f>
         <v>13.313247619047607</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="5">
         <f>AVERAGE(V6:V15)</f>
         <v>8.2857142857142865</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F20" s="22"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C22" s="10" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="G22" s="10" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="23"/>
+      <c r="G22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="18" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="23"/>
+      <c r="K22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16" t="s">
+      <c r="G23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="36" t="s">
+      <c r="K23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="34"/>
+      <c r="S23" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="14">
-        <v>12</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="D24" s="7">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8">
         <v>189.64699999999999</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="14">
-        <v>12</v>
-      </c>
-      <c r="I24" s="15">
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="8">
         <v>123.67400000000001</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24">
         <f>MIN(D6,P6)</f>
         <v>12</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="7">
         <f>12-L24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="7">
         <f>(L24-M24)/12*100</f>
         <v>100</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="7">
         <f>MIN(G6,S6)</f>
         <v>123.67400000000001</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="7">
         <f>O24/12</f>
         <v>10.306166666666668</v>
       </c>
-      <c r="Q24" s="14">
-        <f>O24/12+R24</f>
+      <c r="Q24" s="33">
+        <f>O24/12+S24</f>
         <v>9.3061666666666678</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="33"/>
+      <c r="S24" s="8">
         <f>0.2*(95-(L24*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="2">
         <v>137.131</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="5">
-        <v>12</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2">
         <v>176.964</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="5">
-        <f t="shared" ref="L25:L33" si="10">MIN(D7,P7)</f>
+      <c r="L25">
+        <f t="shared" ref="L25:L33" si="13">MIN(D7,P7)</f>
         <v>8</v>
       </c>
-      <c r="M25" s="5">
-        <f t="shared" ref="M25:M33" si="11">12-L25</f>
+      <c r="M25">
+        <f t="shared" ref="M25:M33" si="14">12-L25</f>
         <v>4</v>
       </c>
-      <c r="N25" s="5">
-        <f t="shared" ref="N25:N33" si="12">(L25-M25)/12*100</f>
+      <c r="N25">
+        <f t="shared" ref="N25:N33" si="15">(L25-M25)/12*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25">
         <f>MIN(G7,S7)</f>
         <v>137.131</v>
       </c>
-      <c r="P25" s="5">
-        <f t="shared" ref="P25:P33" si="13">O25/12</f>
+      <c r="P25">
+        <f t="shared" ref="P25:P33" si="16">O25/12</f>
         <v>11.427583333333333</v>
       </c>
-      <c r="Q25" s="5">
-        <f>O25/12+R25</f>
+      <c r="Q25" s="29">
+        <f>O25/12+S25</f>
         <v>17.094249999999999</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="29"/>
+      <c r="S25" s="2">
         <f>0.2*(95-(L25*100)/12)</f>
         <v>5.6666666666666661</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="5">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
         <v>83.876499989999999</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26">
         <v>9</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="2">
         <v>51.5076999999999</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="5">
-        <f t="shared" si="10"/>
+      <c r="L26">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="M26" s="5">
-        <f t="shared" si="11"/>
+      <c r="M26">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="N26" s="5">
-        <f t="shared" si="12"/>
+      <c r="N26">
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="O26" s="5">
-        <f t="shared" ref="O26:O33" si="14">MIN(G8,S8)</f>
+      <c r="O26">
+        <f t="shared" ref="O26:O33" si="17">MIN(G8,S8)</f>
         <v>51.5076999999999</v>
       </c>
-      <c r="P26" s="5">
-        <f t="shared" si="13"/>
+      <c r="P26">
+        <f t="shared" si="16"/>
         <v>4.2923083333333247</v>
       </c>
-      <c r="Q26" s="5">
-        <f>O26/12+R26</f>
+      <c r="Q26" s="29">
+        <f>O26/12+S26</f>
         <v>8.2923083333333238</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="29"/>
+      <c r="S26" s="2">
         <f>0.2*(95-(L26*100)/12)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>11</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="2">
         <v>139.288199999</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="5">
-        <v>12</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2">
         <v>70.167099999998996</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="5">
-        <f t="shared" si="10"/>
+      <c r="L27">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="M27" s="5">
-        <f t="shared" si="11"/>
+      <c r="M27">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="N27" s="5">
-        <f t="shared" si="12"/>
+      <c r="N27">
+        <f t="shared" si="15"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="O27" s="5">
-        <f t="shared" si="14"/>
+      <c r="O27">
+        <f t="shared" si="17"/>
         <v>70.167099999998996</v>
       </c>
-      <c r="P27" s="5">
-        <f t="shared" si="13"/>
+      <c r="P27">
+        <f t="shared" si="16"/>
         <v>5.84725833333325</v>
       </c>
-      <c r="Q27" s="5">
-        <f>O27/12+R27</f>
+      <c r="Q27" s="29">
+        <f>O27/12+S27</f>
         <v>6.513924999999916</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="29"/>
+      <c r="S27" s="2">
         <f>0.2*(95-(L27*100)/12)</f>
         <v>0.66666666666666574</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="G28" s="4" t="s">
+      <c r="E28" s="2"/>
+      <c r="G28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-      <c r="K28" s="4" t="s">
+      <c r="I28" s="2"/>
+      <c r="K28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="5">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="N28" s="5">
-        <f t="shared" si="12"/>
+      <c r="L28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="15"/>
         <v>-100</v>
       </c>
-      <c r="O28" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="5">
-        <f>O28/12+R28</f>
-        <v>19</v>
-      </c>
-      <c r="R28" s="6">
+      <c r="O28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="29">
+        <f>O28/12+S28</f>
+        <v>19</v>
+      </c>
+      <c r="R28" s="29"/>
+      <c r="S28" s="2">
         <f>0.2*(95-(L28*100)/12)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>6</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2">
         <f>4.21*12</f>
         <v>50.519999999999996</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
-      <c r="K29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="M29" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" si="12"/>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="K29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="O29" s="5">
-        <f t="shared" si="14"/>
+      <c r="O29">
+        <f t="shared" si="17"/>
         <v>50.519999999999996</v>
       </c>
-      <c r="P29" s="5">
-        <f t="shared" si="13"/>
+      <c r="P29">
+        <f t="shared" si="16"/>
         <v>4.21</v>
       </c>
-      <c r="Q29" s="5">
-        <f>O29/12+R29</f>
+      <c r="Q29" s="29">
+        <f>O29/12+S29</f>
         <v>3.21</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="29"/>
+      <c r="S29" s="2">
         <f>0.2*(95-(L29*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>7</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="5">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2">
         <f>4.419*12</f>
         <v>53.027999999999992</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-      <c r="K30" s="4" t="s">
+      <c r="I30" s="2"/>
+      <c r="K30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="5">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="M30" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" si="12"/>
+      <c r="L30">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="O30" s="5">
-        <f t="shared" si="14"/>
+      <c r="O30">
+        <f t="shared" si="17"/>
         <v>53.027999999999992</v>
       </c>
-      <c r="P30" s="5">
-        <f t="shared" si="13"/>
+      <c r="P30">
+        <f t="shared" si="16"/>
         <v>4.4189999999999996</v>
       </c>
-      <c r="Q30" s="5">
-        <f>O30/12+R30</f>
+      <c r="Q30" s="29">
+        <f>O30/12+S30</f>
         <v>3.4189999999999996</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="29"/>
+      <c r="S30" s="2">
         <f>0.2*(95-(L30*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>8</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="5">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2">
         <f>11.577*12</f>
         <v>138.92400000000001</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
-      <c r="K31" s="4" t="s">
+      <c r="I31" s="2"/>
+      <c r="K31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="5">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="M31" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <f t="shared" si="12"/>
+      <c r="L31">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="O31" s="5">
-        <f t="shared" si="14"/>
+      <c r="O31">
+        <f t="shared" si="17"/>
         <v>138.92400000000001</v>
       </c>
-      <c r="P31" s="5">
-        <f t="shared" si="13"/>
+      <c r="P31">
+        <f t="shared" si="16"/>
         <v>11.577</v>
       </c>
-      <c r="Q31" s="5">
-        <f>O31/12+R31</f>
+      <c r="Q31" s="29">
+        <f>O31/12+S31</f>
         <v>10.577</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="29"/>
+      <c r="S31" s="2">
         <f>0.2*(95-(L31*100)/12)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>9</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>9</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="G32" s="4">
+      <c r="E32" s="2"/>
+      <c r="G32" s="1">
         <v>9</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
-      <c r="K32" s="4">
+      <c r="I32" s="2"/>
+      <c r="K32" s="1">
         <v>9</v>
       </c>
-      <c r="L32" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="12"/>
+      <c r="L32">
+        <f>MIN(D14,P14)</f>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="15"/>
         <v>-100</v>
       </c>
-      <c r="O32" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
-        <f>O32/12+R32</f>
-        <v>19</v>
-      </c>
-      <c r="R32" s="6">
+      <c r="O32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="29">
+        <f>O32/12+S32</f>
+        <v>19</v>
+      </c>
+      <c r="R32" s="29"/>
+      <c r="S32" s="2">
         <f>0.2*(95-(L32*100)/12)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="3">
         <v>10</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="G33" s="7">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="G33" s="3">
         <v>10</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
-      <c r="K33" s="7">
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="K33" s="3">
         <v>10</v>
       </c>
-      <c r="L33" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="8">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="N33" s="8">
-        <f t="shared" si="12"/>
+      <c r="L33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="15"/>
         <v>-100</v>
       </c>
-      <c r="O33" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8">
-        <f>O33/12+R33</f>
-        <v>19</v>
-      </c>
-      <c r="R33" s="9">
+      <c r="O33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="33">
+        <f>O33/12+S33</f>
+        <v>19</v>
+      </c>
+      <c r="R33" s="33"/>
+      <c r="S33" s="5">
         <f>0.2*(95-(L33*100)/12)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K34" s="7" t="s">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="37">
-        <f t="shared" ref="L34:P34" si="15">AVERAGE(L24:L33)</f>
+      <c r="L34" s="20">
+        <f t="shared" ref="L34:P34" si="18">AVERAGE(L24:L33)</f>
         <v>7.6</v>
       </c>
-      <c r="M34" s="8">
-        <f t="shared" si="15"/>
+      <c r="M34" s="4">
+        <f t="shared" si="18"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N34" s="8">
-        <f t="shared" si="15"/>
+      <c r="N34" s="4">
+        <f t="shared" si="18"/>
         <v>26.666666666666664</v>
       </c>
-      <c r="O34" s="8">
-        <f t="shared" si="15"/>
+      <c r="O34" s="4">
+        <f t="shared" si="18"/>
         <v>62.495179999999877</v>
       </c>
-      <c r="P34" s="8">
-        <f t="shared" si="15"/>
+      <c r="P34" s="4">
+        <f t="shared" si="18"/>
         <v>5.2079316666666573</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="33">
         <f>AVERAGE(Q24:Q33)</f>
         <v>11.54126499999999</v>
       </c>
-      <c r="R34" s="9">
-        <f>AVERAGE(R24:R33)</f>
+      <c r="R34" s="33"/>
+      <c r="S34" s="5">
+        <f>AVERAGE(S24:S33)</f>
         <v>6.333333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="53">
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="O4:V4"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="C3:E3"/>
@@ -2403,46 +2516,50 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K22:R22"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="O4:V4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D24:D33">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="lessThan">
+  <conditionalFormatting sqref="C6:G15 I6:I15 K6:K13 K15 K14:M14 M6:M13 M15 O6:V15 K24:Q33 S24:S33">
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>$D6&lt;12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="21">
+      <formula>"$G6&lt;12"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D15">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D15">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="D24:D33">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="lessThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H33">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="2.0270000000000001"/>
+        <cfvo type="num" val="2.5830000000000002"/>
+        <cfvo type="num" val="3.694"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:L33">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="2.0270000000000001"/>
         <cfvo type="num" val="2.5830000000000002"/>
@@ -2463,44 +2580,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:G15 I6:I15 O6:V15 K15 M15 K14:M14 K6:K13 M6:M13">
-    <cfRule type="expression" dxfId="5" priority="20">
-      <formula>$D6&lt;12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="21">
-      <formula>"$G6&lt;12"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H33">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L33">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q34">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="2.0270000000000001"/>
-        <cfvo type="num" val="2.5830000000000002"/>
-        <cfvo type="num" val="3.694"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:R33">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$D24&lt;12</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>"$G6&lt;12"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2528,6 +2607,25 @@
           <xm:sqref>K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{C04A1CC3-3856-444E-8A37-5B1DFF7EEBCD}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2.0270000000000001</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.1379999999999999</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Q34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{D5D776D0-5070-4B5F-9AFB-BEE2C4576792}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -2546,8 +2644,1604 @@
           </x14:cfRule>
           <xm:sqref>U16</xm:sqref>
         </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3613973B-CC37-4263-AA89-FBEDB3DA39CE}">
+  <dimension ref="C4:W35"/>
+  <sheetViews>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="28"/>
+      <c r="P5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="28"/>
+    </row>
+    <row r="6" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7">
+        <f>E25</f>
+        <v>12</v>
+      </c>
+      <c r="F7" s="7">
+        <f>12-E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f>(E7-F7)/12*100</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="30">
+        <f>F25</f>
+        <v>170</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30">
+        <f>H7/12</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30">
+        <f t="shared" ref="L7:L16" si="0">H7/12+N7</f>
+        <v>13.166666666666666</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="8">
+        <f t="shared" ref="N7:N16" si="1">0.2*(95-(E7*100)/12)</f>
+        <v>-1</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>I25</f>
+        <v>12</v>
+      </c>
+      <c r="R7" s="7">
+        <f>12-Q7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f>(Q7-R7)/12*100</f>
+        <v>100</v>
+      </c>
+      <c r="T7" s="7">
+        <f>J25</f>
+        <v>219</v>
+      </c>
+      <c r="U7" s="7">
+        <f>T7/12</f>
+        <v>18.25</v>
+      </c>
+      <c r="V7" s="7">
+        <f>T7/12+W7</f>
+        <v>17.25</v>
+      </c>
+      <c r="W7" s="8">
+        <f>0.2*(95-(Q7*100)/12)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F16" si="2">12-E8</f>
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G16" si="3">(E8-F8)/12*100</f>
+        <v>-100</v>
+      </c>
+      <c r="H8" s="29">
+        <f>F26</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29">
+        <f t="shared" ref="J8:J16" si="4">H8/12</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <f>I26</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8:R16" si="5">12-Q8</f>
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S16" si="6">(Q8-R8)/12*100</f>
+        <v>-100</v>
+      </c>
+      <c r="T8">
+        <f>J26</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U16" si="7">T8/12</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>T8/12+W8</f>
+        <v>19</v>
+      </c>
+      <c r="W8" s="2">
+        <f>0.2*(95-(Q8*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E16" si="8">E27</f>
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H9" s="29">
+        <f>F27</f>
+        <v>46.9893</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
+        <f t="shared" si="4"/>
+        <v>3.915775</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29">
+        <f t="shared" si="0"/>
+        <v>2.915775</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="2">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q16" si="9">I27</f>
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T16" si="10">J27</f>
+        <v>44.98</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="7"/>
+        <v>3.7483333333333331</v>
+      </c>
+      <c r="V9">
+        <f>T9/12+W9</f>
+        <v>2.7483333333333331</v>
+      </c>
+      <c r="W9" s="2">
+        <f>0.2*(95-(Q9*100)/12)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="H10" s="29">
+        <f>F28</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>T10/12+W10</f>
+        <v>19</v>
+      </c>
+      <c r="W10" s="2">
+        <f>0.2*(95-(Q10*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>T11/12+W11</f>
+        <v>19</v>
+      </c>
+      <c r="W11" s="2">
+        <f>0.2*(95-(Q11*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="H12" s="29">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="H13" s="29">
+        <f>F31</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="H14" s="29">
+        <f>F32</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P15" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>T15/12+W15</f>
+        <v>19</v>
+      </c>
+      <c r="W15" s="2">
+        <f>0.2*(95-(Q15*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P16" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <f>T16/12+W16</f>
+        <v>19</v>
+      </c>
+      <c r="W16" s="5">
+        <f>0.2*(95-(Q16*100)/12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ref="E17:J17" si="11">AVERAGE(E7:E16)</f>
+        <v>2.4</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="11"/>
+        <v>9.6</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="11"/>
+        <v>-60</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="11"/>
+        <v>21.698930000000001</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21">
+        <f t="shared" si="11"/>
+        <v>1.8082441666666669</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21">
+        <f>AVERAGE(L7:L16)</f>
+        <v>16.808244166666668</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="5">
+        <f>AVERAGE(N7:N16)</f>
+        <v>15</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" ref="Q17:U17" si="12">AVERAGE(Q7:Q16)</f>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="12"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="12"/>
+        <v>-42.857142857142854</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="12"/>
+        <v>37.711428571428577</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="12"/>
+        <v>3.1426190476190476</v>
+      </c>
+      <c r="V17" s="4">
+        <f>AVERAGE(V7:V16)</f>
+        <v>16.428333333333335</v>
+      </c>
+      <c r="W17" s="5">
+        <f>AVERAGE(W7:W16)</f>
+        <v>13.285714285714286</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="D23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
+      <c r="H23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="23"/>
+      <c r="L23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="D24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="34"/>
+      <c r="T24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="7">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8">
+        <v>170</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>12</v>
+      </c>
+      <c r="J25" s="8">
+        <v>219</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <f>MIN(E7,Q7)</f>
+        <v>12</v>
+      </c>
+      <c r="N25" s="7">
+        <f>12-M25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <f>(M25-N25)/12*100</f>
+        <v>100</v>
+      </c>
+      <c r="P25" s="7">
+        <f>MIN(H7,T7)</f>
+        <v>170</v>
+      </c>
+      <c r="Q25" s="7">
+        <f>P25/12</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="R25" s="33">
+        <f>P25/12+T25</f>
+        <v>13.166666666666666</v>
+      </c>
+      <c r="S25" s="33"/>
+      <c r="T25" s="8">
+        <f>0.2*(95-(M25*100)/12)</f>
+        <v>-1</v>
+      </c>
+      <c r="U25" cm="1">
+        <f t="array" ref="U25:W25">'Código Base'!Q24:S24-'Iteração 1'!R25:S25</f>
+        <v>-3.8604999999999983</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="H26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="L26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26:M34" si="13">MIN(E8,Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N34" si="14">12-M26</f>
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O34" si="15">(M26-N26)/12*100</f>
+        <v>-100</v>
+      </c>
+      <c r="P26">
+        <f>MIN(H8,T8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q34" si="16">P26/12</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="29">
+        <f>P26/12+T26</f>
+        <v>19</v>
+      </c>
+      <c r="S26" s="29"/>
+      <c r="T26" s="2">
+        <f>0.2*(95-(M26*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="U26" cm="1">
+        <f t="array" ref="U26:W26">'Código Base'!Q25:S25-'Iteração 1'!R26:S26</f>
+        <v>-1.9057500000000012</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2">
+        <v>46.9893</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44.98</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27:P34" si="17">MIN(H9,T9)</f>
+        <v>44.98</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="16"/>
+        <v>3.7483333333333331</v>
+      </c>
+      <c r="R27" s="29">
+        <f>P27/12+T27</f>
+        <v>2.7483333333333331</v>
+      </c>
+      <c r="S27" s="29"/>
+      <c r="T27" s="2">
+        <f>0.2*(95-(M27*100)/12)</f>
+        <v>-1</v>
+      </c>
+      <c r="U27" cm="1">
+        <f t="array" ref="U27:W27">'Código Base'!Q26:S26-'Iteração 1'!R27:S27</f>
+        <v>5.5439749999999908</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="L28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="15"/>
+        <v>-100</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="29">
+        <f>P28/12+T28</f>
+        <v>19</v>
+      </c>
+      <c r="S28" s="29"/>
+      <c r="T28" s="2">
+        <f>0.2*(95-(M28*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="U28" cm="1">
+        <f t="array" ref="U28:W28">'Código Base'!Q27:S27-'Iteração 1'!R28:S28</f>
+        <v>-12.486075000000085</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="L29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="15"/>
+        <v>-100</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="29">
+        <f>P29/12+T29</f>
+        <v>19</v>
+      </c>
+      <c r="S29" s="29"/>
+      <c r="T29" s="2">
+        <f>0.2*(95-(M29*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="U29" cm="1">
+        <f t="array" ref="U29:W29">'Código Base'!Q28:S28-'Iteração 1'!R29:S29</f>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="L30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="15"/>
+        <v>-100</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="29">
+        <f>P30/12+T30</f>
+        <v>19</v>
+      </c>
+      <c r="S30" s="29"/>
+      <c r="T30" s="2">
+        <f>0.2*(95-(M30*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="U30" cm="1">
+        <f t="array" ref="U30:W30">'Código Base'!Q29:S29-'Iteração 1'!R30:S30</f>
+        <v>-15.79</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="L31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="15"/>
+        <v>-100</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="29">
+        <f>P31/12+T31</f>
+        <v>19</v>
+      </c>
+      <c r="S31" s="29"/>
+      <c r="T31" s="2">
+        <f>0.2*(95-(M31*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="U31" cm="1">
+        <f t="array" ref="U31:W31">'Código Base'!Q30:S30-'Iteração 1'!R31:S31</f>
+        <v>-15.581</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="L32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="15"/>
+        <v>-100</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="29">
+        <f>P32/12+T32</f>
+        <v>19</v>
+      </c>
+      <c r="S32" s="29"/>
+      <c r="T32" s="2">
+        <f>0.2*(95-(M32*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="U32" cm="1">
+        <f t="array" ref="U32:W32">'Código Base'!Q31:S31-'Iteração 1'!R32:S32</f>
+        <v>-8.423</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="H33" s="1">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="L33" s="1">
+        <v>9</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="15"/>
+        <v>-100</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="29">
+        <f>P33/12+T33</f>
+        <v>19</v>
+      </c>
+      <c r="S33" s="29"/>
+      <c r="T33" s="2">
+        <f>0.2*(95-(M33*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="U33" cm="1">
+        <f t="array" ref="U33:W33">'Código Base'!Q32:S32-'Iteração 1'!R33:S33</f>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="H34" s="3">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="L34" s="3">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="15"/>
+        <v>-100</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="33">
+        <f>P34/12+T34</f>
+        <v>19</v>
+      </c>
+      <c r="S34" s="33"/>
+      <c r="T34" s="5">
+        <f>0.2*(95-(M34*100)/12)</f>
+        <v>19</v>
+      </c>
+      <c r="U34" cm="1">
+        <f t="array" ref="U34:W34">'Código Base'!Q33:S33-'Iteração 1'!R34:S34</f>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="L35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="20">
+        <f t="shared" ref="M35:Q35" si="18">AVERAGE(M25:M34)</f>
+        <v>2.4</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="18"/>
+        <v>9.6</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="18"/>
+        <v>-60</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="18"/>
+        <v>21.497999999999998</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="18"/>
+        <v>1.7914999999999999</v>
+      </c>
+      <c r="R35" s="33">
+        <f>AVERAGE(R25:R34)</f>
+        <v>16.791499999999999</v>
+      </c>
+      <c r="S35" s="33"/>
+      <c r="T35" s="5">
+        <f>AVERAGE(T25:T34)</f>
+        <v>15</v>
+      </c>
+      <c r="U35" cm="1">
+        <f t="array" ref="U35:W35">'Código Base'!Q34:S34-'Iteração 1'!R35:S35</f>
+        <v>-5.2502350000000089</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="L23:T23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D7:H16 J7:J16 L7:L14 L16 L15:N15 N7:N14 N16 P7:W16 L25:R34 T25:T34">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>$D7&lt;12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>"$G6&lt;12"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E16">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E34">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I34">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="2.0270000000000001"/>
+        <cfvo type="num" val="2.5830000000000002"/>
+        <cfvo type="num" val="3.694"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25:M34">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="2.0270000000000001"/>
+        <cfvo type="num" val="2.5830000000000002"/>
+        <cfvo type="num" val="3.694"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="2.0270000000000001"/>
+        <cfvo type="num" val="2.5830000000000002"/>
+        <cfvo type="num" val="3.694"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{C04A1CC3-3856-444E-8A37-5B1DFF7EEBCD}">
+          <x14:cfRule type="iconSet" priority="8" id="{188F2201-2E45-4E4A-9235-991A8E2E5124}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2563,22 +4257,48 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>Q34</xm:sqref>
+          <xm:sqref>L17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{250ADDDD-D460-4D08-B456-A46F7F14AAA5}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2.0270000000000001</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.1379999999999999</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>R35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{F36C3833-1171-4B14-B6D8-43F16D2D5A33}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2.0270000000000001</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.1379999999999999</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>V17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3613973B-CC37-4263-AA89-FBEDB3DA39CE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>